--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B58B4C-8494-4FEC-87BF-0519B6837E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46A847-1708-47B2-B5CB-8C0B65043ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FiledOfVision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShootingRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +117,10 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldOfVision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,7 +463,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -486,10 +486,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -497,7 +497,7 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -523,7 +523,7 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -549,7 +549,7 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -575,7 +575,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -601,7 +601,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>5000</v>
@@ -627,7 +627,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1500</v>
@@ -653,7 +653,7 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>1500</v>
@@ -679,7 +679,7 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1500</v>
@@ -705,7 +705,7 @@
         <v>10001</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -731,7 +731,7 @@
         <v>10002</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>500</v>
@@ -757,7 +757,7 @@
         <v>10010</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1000</v>
@@ -783,7 +783,7 @@
         <v>10011</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1200</v>
@@ -809,7 +809,7 @@
         <v>10012</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>800</v>
@@ -835,7 +835,7 @@
         <v>10013</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>2000</v>

--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46A847-1708-47B2-B5CB-8C0B65043ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E5BD2-7257-4849-A0C9-F9E02CBBA574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,28 @@
   <si>
     <t>FieldOfVision</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader_BLUE_CC</t>
+  </si>
+  <si>
+    <t>Leader_GREEN_CC</t>
+  </si>
+  <si>
+    <t>Knight_BLUE_CC</t>
+  </si>
+  <si>
+    <t>LanceKnight_BLUE_CC</t>
+  </si>
+  <si>
+    <t>Hunter_BLUE_CC</t>
+  </si>
+  <si>
+    <t>Horse_BLUE_CC</t>
   </si>
 </sst>
 </file>
@@ -446,27 +468,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -474,390 +497,412 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10000</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1000</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2000</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2000</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>300</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1500</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1500</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1500</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10001</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
         <v>100</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10002</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
         <v>500</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10010</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
         <v>1000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>100</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>90</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10011</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
         <v>1200</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>100</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>90</v>
       </c>
-      <c r="F16">
-        <v>1.5</v>
-      </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10012</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
         <v>800</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>150</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>80</v>
       </c>
-      <c r="F17">
-        <v>0.8</v>
-      </c>
       <c r="G17">
-        <v>3</v>
+        <v>0.15</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10013</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
         <v>2000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>250</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>200</v>
       </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
       <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E5BD2-7257-4849-A0C9-F9E02CBBA574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B27E22-D76D-4F74-8305-BED4A1B237C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="actor_info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>Horse_BLUE_CC</t>
+  </si>
+  <si>
+    <t>AttackInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmmuBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹药基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击持续时间(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,28 +492,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,8 +553,17 @@
       <c r="I2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -544,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -570,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -596,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -622,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -648,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -674,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -700,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -726,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -740,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>0.2</v>
@@ -755,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -769,10 +814,10 @@
         <v>500</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0.2</v>
@@ -784,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10010</v>
       </c>
@@ -801,7 +846,7 @@
         <v>100</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>0.2</v>
@@ -812,8 +857,17 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10011</v>
       </c>
@@ -841,8 +895,17 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10012</v>
       </c>
@@ -859,7 +922,7 @@
         <v>150</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G17">
         <v>0.15</v>
@@ -870,8 +933,17 @@
       <c r="I17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10013</v>
       </c>
@@ -898,6 +970,15 @@
       </c>
       <c r="I18">
         <v>1</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B27E22-D76D-4F74-8305-BED4A1B237C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399733C0-4D29-4790-B66B-7907C4D94970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actor_info" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AmmuBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹药基数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +163,10 @@
   </si>
   <si>
     <t>攻击间隔(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmmoBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,37 +495,37 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
       <c r="L1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -554,16 +554,16 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10010</v>
       </c>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10011</v>
       </c>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10012</v>
       </c>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10013</v>
       </c>

--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399733C0-4D29-4790-B66B-7907C4D94970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C825BC0F-E1F6-4B9C-83B3-36D37EE6CE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actor_info" sheetId="1" r:id="rId1"/>
@@ -495,23 +495,23 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -678,7 +678,7 @@
         <v>5000</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -811,13 +811,13 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>0.2</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10010</v>
       </c>
@@ -840,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>0.2</v>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10011</v>
       </c>
@@ -878,13 +878,13 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>0.25</v>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10012</v>
       </c>
@@ -916,13 +916,13 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>150</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G17">
         <v>0.15</v>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10013</v>
       </c>
@@ -954,13 +954,13 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E18">
         <v>250</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>0.4</v>

--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C825BC0F-E1F6-4B9C-83B3-36D37EE6CE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3683794E-AEB0-4AED-9E00-4EED756FB5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -934,10 +934,10 @@
         <v>3</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>7</v>
@@ -972,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>10</v>

--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -1,204 +1,482 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3683794E-AEB0-4AED-9E00-4EED756FB5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC312496-B8F9-4525-8EC0-141758F5E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="actor_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>攻击持续时间(s)</t>
+  </si>
+  <si>
+    <t>攻击间隔(s)</t>
+  </si>
+  <si>
+    <t>弹药基数</t>
+  </si>
+  <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtPrefab</t>
   </si>
   <si>
     <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AttackPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DefencePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldOfVision</t>
   </si>
   <si>
     <t>ShootingRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDuration</t>
+  </si>
+  <si>
+    <t>AttackInterval</t>
+  </si>
+  <si>
+    <t>AmmoBase</t>
+  </si>
+  <si>
+    <t>主城</t>
+  </si>
+  <si>
+    <t>桥梁</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>箭楼</t>
+  </si>
+  <si>
+    <t>农庄</t>
+  </si>
+  <si>
+    <t>伐木场</t>
+  </si>
+  <si>
+    <t>矿山</t>
   </si>
   <si>
     <t>农民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader_BLUE_CC</t>
   </si>
   <si>
     <t>开拓者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader_GREEN_CC</t>
   </si>
   <si>
     <t>刀兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knight_BLUE_CC</t>
   </si>
   <si>
     <t>长枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanceKnight_BLUE_CC</t>
   </si>
   <si>
     <t>弓箭手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter_BLUE_CC</t>
   </si>
   <si>
     <t>骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldOfVision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArtPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leader_BLUE_CC</t>
-  </si>
-  <si>
-    <t>Leader_GREEN_CC</t>
-  </si>
-  <si>
-    <t>Knight_BLUE_CC</t>
-  </si>
-  <si>
-    <t>LanceKnight_BLUE_CC</t>
-  </si>
-  <si>
-    <t>Hunter_BLUE_CC</t>
   </si>
   <si>
     <t>Horse_BLUE_CC</t>
-  </si>
-  <si>
-    <t>AttackInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹药基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击持续时间(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击间隔(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmmoBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -206,15 +484,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,7 +783,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +799,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -258,7 +811,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -275,7 +828,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -305,12 +858,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -340,6 +910,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,76 +1078,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -568,7 +1144,7 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -594,7 +1170,7 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -620,7 +1196,7 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -646,7 +1222,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -672,7 +1248,7 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>5000</v>
@@ -698,7 +1274,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1500</v>
@@ -724,7 +1300,7 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1500</v>
@@ -750,7 +1326,7 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>1500</v>
@@ -776,10 +1352,10 @@
         <v>10001</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -805,10 +1381,10 @@
         <v>10002</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>150</v>
@@ -834,10 +1410,10 @@
         <v>10010</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -872,16 +1448,16 @@
         <v>10011</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>300</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>70</v>
@@ -893,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -910,16 +1486,16 @@
         <v>10012</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>150</v>
       </c>
       <c r="E17">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F17">
         <v>60</v>
@@ -948,16 +1524,16 @@
         <v>10013</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>500</v>
       </c>
       <c r="E18">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -982,8 +1558,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC312496-B8F9-4525-8EC0-141758F5E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6F5E7-0953-48CF-AC16-0F1AF96C1A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actor_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Hp</t>
   </si>
   <si>
-    <t>AttackPower</t>
-  </si>
-  <si>
     <t>DefencePower</t>
   </si>
   <si>
@@ -128,12 +125,40 @@
   </si>
   <si>
     <t>Horse_BLUE_CC</t>
+  </si>
+  <si>
+    <t>ArmyType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower_5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower_6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,30 +1103,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1115,450 +1144,526 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>50</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>5000</v>
       </c>
       <c r="E7">
+        <v>98</v>
+      </c>
+      <c r="F7">
         <v>1000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>1500</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>1500</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>15</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>1500</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10001</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
         <v>0.2</v>
       </c>
-      <c r="H13">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10002</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14">
         <v>150</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>40</v>
       </c>
-      <c r="G14">
+      <c r="M14">
         <v>0.2</v>
       </c>
-      <c r="H14">
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10010</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
       </c>
       <c r="D15">
         <v>200</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="G15">
+      <c r="M15">
         <v>0.2</v>
       </c>
-      <c r="H15">
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>10</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>3</v>
       </c>
-      <c r="L15">
-        <v>3</v>
+      <c r="R15">
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10011</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16">
         <v>300</v>
       </c>
       <c r="E16">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>70</v>
-      </c>
-      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="L16">
+        <v>55</v>
+      </c>
+      <c r="M16">
         <v>0.25</v>
       </c>
-      <c r="H16">
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>12</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>5</v>
+      <c r="R16">
+        <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10012</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
       <c r="D17">
         <v>150</v>
       </c>
       <c r="E17">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>60</v>
-      </c>
-      <c r="G17">
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
         <v>0.15</v>
       </c>
-      <c r="H17">
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>8</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>7</v>
+      <c r="R17">
+        <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10013</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
       <c r="D18">
         <v>500</v>
       </c>
       <c r="E18">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>80</v>
-      </c>
-      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
         <v>0.4</v>
       </c>
-      <c r="H18">
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>5</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>2</v>
       </c>
-      <c r="L18">
-        <v>10</v>
+      <c r="R18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/Data/actor_info.xlsx
+++ b/Assets/StreamingAssets/Data/actor_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\android-hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6F5E7-0953-48CF-AC16-0F1AF96C1A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF4081-CCFA-44E0-86DF-FCC0E328E606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="495" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actor_info" sheetId="1" r:id="rId1"/>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1456,7 @@
         <v>30</v>
       </c>
       <c r="M13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1488,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="M14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1520,7 +1520,7 @@
         <v>50</v>
       </c>
       <c r="M15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="M16">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1602,7 +1602,7 @@
         <v>45</v>
       </c>
       <c r="M17">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="M18">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="N18">
         <v>2</v>
